--- a/tests/data.gui/test/emf/dsp.3/kev.emf.constants.data.xlsx
+++ b/tests/data.gui/test/emf/dsp.3/kev.emf.constants.data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -357,16 +357,19 @@
     <t xml:space="preserve">1.4439697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0790202666613273</t>
+    <t xml:space="preserve">0.0790202666617893</t>
   </si>
   <si>
     <t xml:space="preserve">2.80224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0965696519655315</t>
+    <t xml:space="preserve">0.0965696519662007</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987616</t>
   </si>
 </sst>
 </file>
@@ -809,12 +812,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.660096011571692</v>
+        <v>-0.660096011578177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.660096011571692</v>
+        <v>-0.660096011578177</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -840,8 +843,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.98761589817843</v>
+      <c r="A2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1306,13 +1309,13 @@
         <v>0.00139312412246651</v>
       </c>
       <c r="F2" t="n">
-        <v>9.94704683423444e-05</v>
+        <v>0.0000994704683423444</v>
       </c>
       <c r="G2" t="n">
-        <v>2.41785566996686e-09</v>
+        <v>0.00000000241785566996686</v>
       </c>
       <c r="H2" t="n">
-        <v>8.68636891990948e-12</v>
+        <v>0.00000000000868636891990948</v>
       </c>
     </row>
     <row r="3">
@@ -1335,10 +1338,10 @@
         <v>0.000246704951522924</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55587709035982e-09</v>
+        <v>0.00000000355587709035982</v>
       </c>
       <c r="H3" t="n">
-        <v>1.36666992582566e-11</v>
+        <v>0.0000000000136666992582566</v>
       </c>
     </row>
     <row r="4">
@@ -1352,7 +1355,7 @@
         <v>0.013654887110331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00949491250418501</v>
+        <v>0.00949491250418503</v>
       </c>
       <c r="E4" t="n">
         <v>0.00295141294282846</v>
@@ -1361,10 +1364,10 @@
         <v>0.0005236950651608</v>
       </c>
       <c r="G4" t="n">
-        <v>4.88167973414949e-09</v>
+        <v>0.00000000488167973414947</v>
       </c>
       <c r="H4" t="n">
-        <v>2.05722204630584e-11</v>
+        <v>0.0000000000205722204630584</v>
       </c>
     </row>
     <row r="5">
@@ -1387,10 +1390,10 @@
         <v>0.00097097473925248</v>
       </c>
       <c r="G5" t="n">
-        <v>6.26344693097049e-09</v>
+        <v>0.00000000626344693097049</v>
       </c>
       <c r="H5" t="n">
-        <v>2.97531504321122e-11</v>
+        <v>0.0000000000297531504321122</v>
       </c>
     </row>
     <row r="6">
@@ -1413,10 +1416,10 @@
         <v>0.00130443044117693</v>
       </c>
       <c r="G6" t="n">
-        <v>7.00224631699334e-09</v>
+        <v>0.00000000700224631699334</v>
       </c>
       <c r="H6" t="n">
-        <v>3.60659968337524e-11</v>
+        <v>0.0000000000360659968337524</v>
       </c>
     </row>
     <row r="7">
@@ -1439,10 +1442,10 @@
         <v>0.00174775801408607</v>
       </c>
       <c r="G7" t="n">
-        <v>7.7647341593962e-09</v>
+        <v>0.0000000077647341593962</v>
       </c>
       <c r="H7" t="n">
-        <v>4.42563906787511e-11</v>
+        <v>0.0000000000442563906787511</v>
       </c>
     </row>
     <row r="8">
@@ -1465,10 +1468,10 @@
         <v>0.00214301109079497</v>
       </c>
       <c r="G8" t="n">
-        <v>8.2926768959234e-09</v>
+        <v>0.0000000082926768959234</v>
       </c>
       <c r="H8" t="n">
-        <v>5.16191933828633e-11</v>
+        <v>0.0000000000516191933828633</v>
       </c>
     </row>
     <row r="9">
@@ -1491,10 +1494,10 @@
         <v>0.00264798897490217</v>
       </c>
       <c r="G9" t="n">
-        <v>8.81135845676926e-09</v>
+        <v>0.00000000881135845676926</v>
       </c>
       <c r="H9" t="n">
-        <v>6.13835048063712e-11</v>
+        <v>0.0000000000613835048063712</v>
       </c>
     </row>
     <row r="10">
@@ -1517,10 +1520,10 @@
         <v>0.0031216114612512</v>
       </c>
       <c r="G10" t="n">
-        <v>9.16905914645108e-09</v>
+        <v>0.00000000916905914645108</v>
       </c>
       <c r="H10" t="n">
-        <v>7.11322258196398e-11</v>
+        <v>0.0000000000711322258196398</v>
       </c>
     </row>
     <row r="11">
@@ -1543,10 +1546,10 @@
         <v>0.003567844360963</v>
       </c>
       <c r="G11" t="n">
-        <v>9.41288473757385e-09</v>
+        <v>0.00000000941288473757385</v>
       </c>
       <c r="H11" t="n">
-        <v>8.1051326298278e-11</v>
+        <v>0.000000000081051326298278</v>
       </c>
     </row>
     <row r="12">
@@ -1569,10 +1572,10 @@
         <v>0.00398457965875162</v>
       </c>
       <c r="G12" t="n">
-        <v>9.56947927391286e-09</v>
+        <v>0.00000000956947927391286</v>
       </c>
       <c r="H12" t="n">
-        <v>9.11601312889046e-11</v>
+        <v>0.0000000000911601312889046</v>
       </c>
     </row>
     <row r="13">
@@ -1595,10 +1598,10 @@
         <v>0.00430132344844205</v>
       </c>
       <c r="G13" t="n">
-        <v>9.64196804181404e-09</v>
+        <v>0.00000000964196804181404</v>
       </c>
       <c r="H13" t="n">
-        <v>9.95346036860064e-11</v>
+        <v>0.0000000000995346036860064</v>
       </c>
     </row>
   </sheetData>
